--- a/doc/URL ESTATICAS.xlsx
+++ b/doc/URL ESTATICAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>/</t>
   </si>
@@ -51,21 +51,44 @@
     <t>ARTICULOS/BEISBOL-Y-SU-HISTORIA</t>
   </si>
   <si>
-    <t>ARTICULOS/BEISBOL-REGLAS</t>
-  </si>
-  <si>
     <t>RESULTADOS/BEISBOL/VENEZOLANO/JUEGOS-PARA-HOY</t>
   </si>
   <si>
     <t>ARTICULOS/BEISBOL/QUE-ES</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>LVBP</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ARTICULOS/HISTORIA-DEL-BEISBOL</t>
+  </si>
+  <si>
+    <t>ARTICULOS/REGLAS-DEL-BEISBOL</t>
+  </si>
+  <si>
+    <t>NOTICIAS/BEISBOL/VENEZOLA/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,10 +449,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,9 +461,10 @@
     <col min="2" max="2" width="53.21875" style="2" customWidth="1"/>
     <col min="3" max="11" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>1</v>
       </c>
@@ -483,130 +510,156 @@
       <c r="Q1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
